--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Escritorio\Plantilla Agile documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\UP-Chiapas\8 Cuatrimestre\Mantenimiento\1  Corte\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94201C1-2985-4ACB-8CF4-CDD5A1ADFF34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19E619-62B8-4875-9B3E-721CDC413EF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Lista de pendientes del Sprint</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Hacer componente de reporte de propietarios registrados</t>
+  </si>
+  <si>
+    <t>Inicialización</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Planificación inicial</t>
   </si>
 </sst>
 </file>
@@ -375,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -409,30 +418,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -454,34 +439,38 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -508,6 +497,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <strike val="0"/>
@@ -522,6 +514,26 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,66 +740,66 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>('Sprint Backlog'!$C$21,'Sprint Backlog'!$G$21:$X$21)</c:f>
+              <c:f>('Sprint Backlog'!$C$23,'Sprint Backlog'!$G$23:$X$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,13 +1722,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1748,20 +1760,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="7" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B6:B9" xr:uid="{F3E2B1E9-D54D-410D-A3D2-FBD94F3FC197}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="2">
-  <autoFilter ref="D6:D10" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="D6:D11" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2064,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
-  <dimension ref="B1:Y21"/>
+  <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,11 +2093,11 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -2093,33 +2105,33 @@
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="18"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
     </row>
     <row r="7" spans="2:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -2195,59 +2207,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
-        <v>21</v>
+    <row r="8" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="27">
-        <f>MAX(F9:F11)</f>
-        <v>14</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
+        <f>SUM(C9:C10)</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="19">
+        <f>MAX(F9:F10)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="2:25" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="20">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2266,22 +2285,28 @@
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="20">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="5">
-        <v>14</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -2301,92 +2326,105 @@
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <f>SUM(C12:C13)</f>
+        <v>11</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="5">
-        <v>7</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="F11" s="19">
+        <f>MAX(F12:F13)</f>
+        <v>13</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="2:25" ht="18" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="27" t="s">
+    <row r="12" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="20">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="27">
-        <f>MAX(F13:F14)</f>
-        <v>14</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
+      <c r="F12" s="5">
+        <v>13</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C13" s="20">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -2405,93 +2443,106 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="s">
+    <row r="14" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7">
+        <f>SUM(C15:C16)</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="5">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="F14" s="19">
+        <f>MAX(F15:F16)</f>
+        <v>13</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="20">
+        <v>8</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="27">
-        <f>MAX(F16:F17)</f>
-        <v>14</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
+      <c r="F15" s="5">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="20">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="5">
-        <v>14</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2511,92 +2562,105 @@
       <c r="Y16" s="5"/>
     </row>
     <row r="17" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <f>SUM(C18:C19)</f>
+        <v>11</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="F17" s="19">
+        <f>MAX(F18:F19)</f>
+        <v>13</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
     </row>
     <row r="18" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="7">
-        <v>11</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="20">
+        <v>8</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="27">
-        <f>MAX(F19:F20)</f>
-        <v>14</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
+      <c r="F18" s="5">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
     </row>
     <row r="19" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="5">
-        <v>14</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2616,125 +2680,209 @@
       <c r="Y19" s="5"/>
     </row>
     <row r="20" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7">
+        <f>SUM(C21:C22)</f>
+        <v>11</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19">
+        <f>MAX(F21:F22)</f>
+        <v>13</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="20">
+        <v>8</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5">
+        <v>13</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22" t="s">
+      <c r="C22" s="20">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F22" s="5">
         <v>7</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6">
-        <f>SUM(C8,C12,C15,C18)</f>
-        <v>44</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="6">
-        <f>C21-SUM(G9:G20)</f>
-        <v>44</v>
-      </c>
-      <c r="H21" s="6">
-        <f>G21-SUM(H9:H20)</f>
-        <v>44</v>
-      </c>
-      <c r="I21" s="6">
-        <f>H21-SUM(I9:I20)</f>
-        <v>44</v>
-      </c>
-      <c r="J21" s="6">
-        <f>I21-SUM(J9:J20)</f>
-        <v>44</v>
-      </c>
-      <c r="K21" s="6">
-        <f>J21-SUM(K9:K20)</f>
-        <v>44</v>
-      </c>
-      <c r="L21" s="6">
-        <f>K21-SUM(L9:L20)</f>
-        <v>44</v>
-      </c>
-      <c r="M21" s="6">
-        <f>L21-SUM(M9:M20)</f>
-        <v>44</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" ref="N21:X21" si="0">M21-SUM(N9:N20)</f>
-        <v>44</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="C23" s="6">
+        <f>SUM(C11,C14,C17,C20,C8)</f>
+        <v>50</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="6">
+        <f>C23-SUM(G9:G22)</f>
+        <v>50</v>
+      </c>
+      <c r="H23" s="6">
+        <f>G23-SUM(H9:H22)</f>
+        <v>48</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" ref="I23:Y23" si="0">H23-SUM(I9:I22)</f>
+        <v>48</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="P21" s="6">
+        <v>48</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>48</v>
+      </c>
+      <c r="L23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="R21" s="6">
+        <v>48</v>
+      </c>
+      <c r="M23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="S21" s="6">
+        <v>48</v>
+      </c>
+      <c r="N23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="T21" s="6">
+        <v>48</v>
+      </c>
+      <c r="O23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="U21" s="6">
+        <v>48</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="V21" s="6">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="W21" s="6">
+        <v>48</v>
+      </c>
+      <c r="R23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="X21" s="6">
+        <v>48</v>
+      </c>
+      <c r="S23" s="6">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="Y21" s="6">
-        <f>X21-SUM(Y9:Y20)</f>
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="W23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="X23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Y23" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2743,18 +2891,21 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G6:X6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G21:Y21">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="G23:Y23">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8 C12 C15 C18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C14 C17 C20 C8 C11">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C8" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2763,13 +2914,13 @@
           <x14:formula1>
             <xm:f>Otros!$B$7:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>E8:E20</xm:sqref>
+          <xm:sqref>E8:E22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5CCE0346-6D7D-4ECD-AB0C-C96DB141E09E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E1CAF59-304B-4D16-9474-59BE40A48A7C}">
           <x14:formula1>
-            <xm:f>Otros!$D$7:$D$10</xm:f>
+            <xm:f>Otros!$D$7:$D$11</xm:f>
           </x14:formula1>
-          <xm:sqref>D8 D12 D15 D18</xm:sqref>
+          <xm:sqref>D8:D22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2779,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A066DF7-CB29-4202-8B80-63D8E47A5AB4}">
-  <dimension ref="B3:I12"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,14 +2943,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -2840,8 +2991,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\UP-Chiapas\8 Cuatrimestre\Mantenimiento\1  Corte\Planeacion PetClinic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19E619-62B8-4875-9B3E-721CDC413EF9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03153D8A-2306-442D-8AE9-4639DEC126A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -754,52 +754,52 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,9 +2267,15 @@
       <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2307,9 +2313,15 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2385,8 +2397,12 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -2425,8 +2441,12 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2503,8 +2523,12 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -2543,8 +2567,12 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2621,8 +2649,12 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -2661,8 +2693,12 @@
       <c r="H19" s="5">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -2739,8 +2775,12 @@
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -2779,8 +2819,12 @@
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -2818,71 +2862,71 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" ref="I23:Y23" si="0">H23-SUM(I9:I22)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03153D8A-2306-442D-8AE9-4639DEC126A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AEC011-F034-462C-BAF0-46DD95AE6F6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -283,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -344,24 +344,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -372,9 +357,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -454,23 +437,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -515,26 +528,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -574,11 +567,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -606,11 +599,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -633,9 +626,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint Backlog'!$G$6:$J$6</c:f>
+              <c:f>'Sprint Backlog'!$G$6:$L$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Días de desarrollo (Enero de 2019)</c:v>
                 </c:pt>
@@ -643,28 +636,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -683,9 +664,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -709,14 +690,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
+                        <a:schemeClr val="dk1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -726,11 +706,10 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -740,10 +719,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>('Sprint Backlog'!$C$23,'Sprint Backlog'!$G$23:$X$23)</c:f>
+              <c:f>('Sprint Backlog'!$C$23,'Sprint Backlog'!$G$23:$Z$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -751,55 +730,61 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +805,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="73921152"/>
         <c:axId val="73921712"/>
@@ -832,34 +831,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -867,9 +838,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -880,7 +851,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1050" b="1"/>
+                  <a:rPr lang="es-MX" b="1"/>
                   <a:t>Días de desarrollo</a:t>
                 </a:r>
               </a:p>
@@ -899,9 +870,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -923,7 +894,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -937,9 +908,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -968,28 +939,26 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="5000"/>
                   <a:lumOff val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1001,9 +970,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1014,7 +983,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="1050" b="1"/>
+                  <a:rPr lang="es-MX" b="1"/>
                   <a:t>Puntos de historia</a:t>
                 </a:r>
               </a:p>
@@ -1033,9 +1002,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1065,9 +1034,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1085,7 +1054,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1109,7 +1090,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1129,11 +1110,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1161,12 +1142,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1201,25 +1179,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1227,7 +1205,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1236,38 +1237,15 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1301,46 +1279,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1352,33 +1344,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1394,21 +1387,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1423,13 +1414,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1442,14 +1433,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1461,17 +1453,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -1480,31 +1471,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -1513,17 +1497,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1532,17 +1515,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1551,17 +1533,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1570,27 +1551,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1598,11 +1594,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1610,17 +1617,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1629,12 +1636,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1643,14 +1650,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1659,7 +1665,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1679,9 +1685,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1692,26 +1698,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1726,7 +1726,7 @@
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>62593</xdr:rowOff>
@@ -1760,20 +1760,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B6:B9" xr:uid="{F3E2B1E9-D54D-410D-A3D2-FBD94F3FC197}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="D6:D11" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2076,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
-  <dimension ref="B1:Y23"/>
+  <dimension ref="B1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E20" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,11 +2088,11 @@
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="6" max="8" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2100,8 +2100,10 @@
       <c r="D2" s="23"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
@@ -2111,8 +2113,8 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="G6" s="25" t="s">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="G6" s="26" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="26"/>
@@ -2131,9 +2133,11 @@
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
       <c r="W6" s="26"/>
-      <c r="X6" s="27"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27"/>
     </row>
-    <row r="7" spans="2:25" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -2150,64 +2154,70 @@
         <v>11</v>
       </c>
       <c r="G7" s="11">
+        <v>43476</v>
+      </c>
+      <c r="H7" s="11">
+        <v>43477</v>
+      </c>
+      <c r="I7" s="11">
         <v>43478</v>
       </c>
-      <c r="H7" s="11">
+      <c r="J7" s="11">
         <v>43479</v>
       </c>
-      <c r="I7" s="11">
+      <c r="K7" s="11">
         <v>43480</v>
       </c>
-      <c r="J7" s="11">
+      <c r="L7" s="11">
         <v>43481</v>
       </c>
-      <c r="K7" s="11">
+      <c r="M7" s="11">
         <v>43482</v>
       </c>
-      <c r="L7" s="11">
+      <c r="N7" s="11">
         <v>43483</v>
       </c>
-      <c r="M7" s="11">
+      <c r="O7" s="11">
         <v>43484</v>
       </c>
-      <c r="N7" s="11">
+      <c r="P7" s="11">
         <v>43485</v>
       </c>
-      <c r="O7" s="11">
+      <c r="Q7" s="11">
         <v>43486</v>
       </c>
-      <c r="P7" s="11">
+      <c r="R7" s="11">
         <v>43487</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="S7" s="11">
         <v>43488</v>
       </c>
-      <c r="R7" s="11">
+      <c r="T7" s="11">
         <v>43489</v>
       </c>
-      <c r="S7" s="11">
+      <c r="U7" s="11">
         <v>43490</v>
       </c>
-      <c r="T7" s="11">
+      <c r="V7" s="11">
         <v>43491</v>
       </c>
-      <c r="U7" s="11">
+      <c r="W7" s="11">
         <v>43492</v>
       </c>
-      <c r="V7" s="11">
+      <c r="X7" s="11">
         <v>43493</v>
       </c>
-      <c r="W7" s="11">
+      <c r="Y7" s="11">
         <v>43494</v>
       </c>
-      <c r="X7" s="11">
+      <c r="Z7" s="11">
         <v>43495</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="AA7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
@@ -2219,11 +2229,11 @@
         <v>36</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="19">
         <f>MAX(F9:F10)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -2244,8 +2254,10 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
@@ -2256,42 +2268,76 @@
         <v>36</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
@@ -2302,7 +2348,7 @@
         <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -2314,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
@@ -2322,22 +2368,56 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
@@ -2349,7 +2429,7 @@
         <v>17</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="19">
         <f>MAX(F12:F13)</f>
@@ -2374,8 +2454,10 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
     </row>
-    <row r="12" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2386,7 +2468,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="5">
         <v>13</v>
@@ -2398,14 +2480,20 @@
         <v>0</v>
       </c>
       <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>2</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -2418,8 +2506,10 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2430,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -2447,9 +2537,15 @@
       <c r="J13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -2462,8 +2558,10 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="2:25" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>23</v>
       </c>
@@ -2475,7 +2573,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="19">
         <f>MAX(F15:F16)</f>
@@ -2500,8 +2598,10 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
     </row>
-    <row r="15" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
@@ -2512,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="5">
         <v>13</v>
@@ -2529,9 +2629,15 @@
       <c r="J15" s="5">
         <v>0</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2544,8 +2650,10 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
@@ -2556,7 +2664,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="5">
         <v>7</v>
@@ -2573,9 +2681,15 @@
       <c r="J16" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -2588,8 +2702,10 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
@@ -2601,7 +2717,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="19">
         <f>MAX(F18:F19)</f>
@@ -2626,8 +2742,10 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
     </row>
-    <row r="18" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
@@ -2638,7 +2756,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" s="5">
         <v>13</v>
@@ -2655,9 +2773,15 @@
       <c r="J18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2670,8 +2794,10 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2808,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="5">
         <v>7</v>
@@ -2699,9 +2825,15 @@
       <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -2714,8 +2846,10 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2727,7 +2861,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="19">
         <f>MAX(F21:F22)</f>
@@ -2752,8 +2886,10 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
     </row>
-    <row r="21" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
@@ -2764,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="5">
         <v>13</v>
@@ -2781,9 +2917,15 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -2796,8 +2938,10 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="2:25" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>34</v>
       </c>
@@ -2808,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" s="5">
         <v>7</v>
@@ -2825,9 +2969,15 @@
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -2840,12 +2990,14 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="28">
         <f>SUM(C11,C14,C17,C20,C8)</f>
         <v>50</v>
       </c>
@@ -2858,91 +3010,104 @@
       </c>
       <c r="H23" s="6">
         <f>G23-SUM(H9:H22)</f>
+        <v>50</v>
+      </c>
+      <c r="I23" s="6">
+        <f>H23-SUM(I9:I22)</f>
         <v>48</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" ref="I23:Y23" si="0">H23-SUM(I9:I22)</f>
+      <c r="J23" s="6">
+        <f>I23-SUM(J9:J22)</f>
+        <v>47</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" ref="K23:AA23" si="0">J23-SUM(K9:K22)</f>
         <v>43</v>
       </c>
-      <c r="J23" s="6">
+      <c r="L23" s="6">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K23" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
       <c r="M23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AA23" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G6:X6"/>
+    <mergeCell ref="G6:Z6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23:Y23">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="I23:AA23">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C17 C20 C8 C11">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:H23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2987,14 +3152,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>

--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AEC011-F034-462C-BAF0-46DD95AE6F6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1382F18-E3C9-42F9-9345-832FEEFE67B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -367,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,6 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -437,16 +448,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,36 +465,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -527,6 +508,36 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -754,37 +765,37 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,20 +1771,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B6:B9" xr:uid="{F3E2B1E9-D54D-410D-A3D2-FBD94F3FC197}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="D6:D11" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2078,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
   <dimension ref="B1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,11 +2104,11 @@
   <sheetData>
     <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2107,11 +2118,11 @@
       <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="G6" s="26" t="s">
@@ -2494,12 +2505,24 @@
       <c r="M12" s="5">
         <v>3</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -2546,12 +2569,24 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -2638,12 +2673,24 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -2690,12 +2737,24 @@
       <c r="M16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -2782,12 +2841,24 @@
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <v>2</v>
+      </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2834,12 +2905,24 @@
       <c r="M19" s="5">
         <v>0</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2926,12 +3009,24 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>4</v>
+      </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -2978,12 +3073,24 @@
       <c r="M22" s="5">
         <v>0</v>
       </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
@@ -2997,7 +3104,7 @@
       <c r="B23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="21">
         <f>SUM(C11,C14,C17,C20,C8)</f>
         <v>50</v>
       </c>
@@ -3042,51 +3149,51 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="T23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="U23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="V23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="W23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="X23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Z23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AA23" s="6">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3096,17 +3203,17 @@
     <mergeCell ref="G6:Z6"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:AA23">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C17 C20 C8 C11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3152,14 +3259,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>

--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1382F18-E3C9-42F9-9345-832FEEFE67B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2C3F2-77B7-4B77-BC5C-C7CDE14D2A16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Revisión del Sprint</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Planificación inicial</t>
+  </si>
+  <si>
+    <t>Revisión del Sprint (puntos de historia incompletos)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -436,6 +436,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -457,14 +460,84 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -508,36 +581,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,22 +823,22 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,20 +1814,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="B6:B9" xr:uid="{F3E2B1E9-D54D-410D-A3D2-FBD94F3FC197}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="D6:D11" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2089,8 +2132,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
   <dimension ref="B1:AA23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="R16" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2100,15 +2146,16 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="6" max="8" width="15.44140625" customWidth="1"/>
+    <col min="27" max="27" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2116,37 +2163,37 @@
     </row>
     <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
     </row>
     <row r="7" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
@@ -2162,7 +2209,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11">
         <v>43476</v>
@@ -2225,22 +2272,22 @@
         <v>43495</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <f>SUM(C9:C10)</f>
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="19">
         <f>MAX(F9:F10)</f>
@@ -2270,16 +2317,16 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="20">
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="5">
         <v>3</v>
@@ -2345,21 +2392,22 @@
         <v>0</v>
       </c>
       <c r="AA9" s="5">
+        <f t="shared" ref="AA9:AA14" si="0">C9-SUM(G9:Z9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="20">
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -2425,22 +2473,23 @@
         <v>0</v>
       </c>
       <c r="AA10" s="5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <f>SUM(C12:C13)</f>
         <v>11</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="19">
         <f>MAX(F12:F13)</f>
@@ -2470,16 +2519,16 @@
     </row>
     <row r="12" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="20">
         <v>8</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5">
         <v>13</v>
@@ -2523,27 +2572,44 @@
       <c r="S12" s="5">
         <v>0</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -2575,7 +2641,7 @@
       <c r="O13" s="5">
         <v>0</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="22">
         <v>0</v>
       </c>
       <c r="Q13" s="5">
@@ -2587,28 +2653,43 @@
       <c r="S13" s="5">
         <v>0</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
+      <c r="AA13" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
         <f>SUM(C15:C16)</f>
         <v>11</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="19">
         <f>MAX(F15:F16)</f>
@@ -2638,16 +2719,16 @@
     </row>
     <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="20">
         <v>8</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="5">
         <v>13</v>
@@ -2691,27 +2772,42 @@
       <c r="S15" s="5">
         <v>0</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="5">
+        <f>C15-SUM(G15:Z15)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="20">
         <v>3</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="5">
         <v>7</v>
@@ -2755,28 +2851,45 @@
       <c r="S16" s="5">
         <v>0</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>0</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="5">
+        <f>C16-SUM(G16:Z16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <f>SUM(C18:C19)</f>
         <v>11</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="19">
         <f>MAX(F18:F19)</f>
@@ -2806,16 +2919,16 @@
     </row>
     <row r="18" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="20">
         <v>8</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5">
         <v>13</v>
@@ -2859,27 +2972,42 @@
       <c r="S18" s="5">
         <v>2</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18" s="5">
+        <v>0</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1</v>
+      </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="AA18" s="5">
+        <f t="shared" ref="AA17:AA22" si="1">C18-SUM(G18:Z18)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="20">
         <v>3</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="5">
         <v>7</v>
@@ -2923,28 +3051,43 @@
       <c r="S19" s="5">
         <v>1</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>0</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
+      <c r="AA19" s="5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
         <f>SUM(C21:C22)</f>
         <v>11</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="19">
         <f>MAX(F21:F22)</f>
@@ -2974,16 +3117,16 @@
     </row>
     <row r="21" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="20">
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="5">
         <v>13</v>
@@ -3027,27 +3170,44 @@
       <c r="S21" s="5">
         <v>4</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
+        <v>2</v>
+      </c>
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="20">
         <v>3</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="5">
         <v>7</v>
@@ -3091,18 +3251,33 @@
       <c r="S22" s="5">
         <v>0</v>
       </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
+      <c r="AA22" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="2:27" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="21">
         <f>SUM(C11,C14,C17,C20,C8)</f>
@@ -3128,72 +3303,72 @@
         <v>47</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ref="K23:AA23" si="0">J23-SUM(K9:K22)</f>
+        <f t="shared" ref="K23:AA23" si="2">J23-SUM(K9:K22)</f>
         <v>43</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="Z23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AA23" s="6">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AA23" s="30">
+        <f>SUM(AA9:AA22)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3203,24 +3378,29 @@
     <mergeCell ref="G6:Z6"/>
   </mergeCells>
   <conditionalFormatting sqref="I23:AA23">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C17 C20 C8 C11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C8" formulaRange="1"/>
+    <ignoredError sqref="C8 AA9:AA10 AA12:AA13 AA15:AA16 AA18:AA19 AA21:AA22" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
@@ -3259,62 +3439,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Planeacion PetClinic/Sprint Backlog.xlsx
+++ b/Planeacion PetClinic/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2C3F2-77B7-4B77-BC5C-C7CDE14D2A16}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3332B7F-EFF7-4C9E-8027-0F2324C40B7B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{F4244AAC-7B42-414C-90C0-2FC324C93578}"/>
   </bookViews>
@@ -291,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -360,22 +360,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -439,6 +428,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -454,20 +446,34 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -773,10 +779,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>('Sprint Backlog'!$C$23,'Sprint Backlog'!$G$23:$Z$23)</c:f>
+              <c:f>('Sprint Backlog'!$C$23,'Sprint Backlog'!$G$23:$AA$23)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -838,7 +844,10 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1814,20 +1823,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3B0C45A4-2A05-4329-88A2-BD23DD5B8760}" name="Tabla1" displayName="Tabla1" ref="B6:B9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B6:B9" xr:uid="{F3E2B1E9-D54D-410D-A3D2-FBD94F3FC197}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FDF9AAFE-9858-4DB1-8538-9791BC2AC50C}" name="Estados" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{116919C8-2871-4E18-B716-1E740D4FBA4B}" name="Tabla2" displayName="Tabla2" ref="D6:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="D6:D11" xr:uid="{0D33FE2C-688B-45E7-9B25-32A8FF88A7E4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{D8C0E1B3-74DA-426B-B57A-A0BEBE11CB09}" name="Responsables" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2130,13 +2139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCCD508-F7DB-43CA-A27E-23C4FD34D26B}">
-  <dimension ref="B1:AA23"/>
+  <dimension ref="B1:AB23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2146,56 +2152,57 @@
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
     <col min="6" max="8" width="15.44140625" customWidth="1"/>
-    <col min="27" max="27" width="27.109375" customWidth="1"/>
+    <col min="28" max="28" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+    <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:28" ht="24" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="4" spans="2:27" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="G6" s="27" t="s">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="G6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
     </row>
-    <row r="7" spans="2:27" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
@@ -2271,11 +2278,14 @@
       <c r="Z7" s="11">
         <v>43495</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="11">
+        <v>43496</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>34</v>
       </c>
@@ -2314,8 +2324,9 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
       <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
         <v>36</v>
       </c>
@@ -2392,11 +2403,14 @@
         <v>0</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" ref="AA9:AA14" si="0">C9-SUM(G9:Z9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <f>C9-SUM(G9:AA9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
@@ -2473,11 +2487,14 @@
         <v>0</v>
       </c>
       <c r="AA10" s="5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <f>C10-SUM(G10:AA10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>20</v>
       </c>
@@ -2516,8 +2533,9 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
       <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
     </row>
-    <row r="12" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
@@ -2594,11 +2612,14 @@
         <v>0</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <f>C12-SUM(G12:AA12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
@@ -2671,13 +2692,18 @@
       <c r="Y13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="5"/>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
       <c r="AA13" s="5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AB13" s="5">
+        <f>C13-SUM(G13:AA13)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>22</v>
       </c>
@@ -2716,8 +2742,9 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
       <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
     </row>
-    <row r="15" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
@@ -2790,13 +2817,18 @@
       <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="5"/>
+      <c r="Z15" s="5">
+        <v>1</v>
+      </c>
       <c r="AA15" s="5">
-        <f>C15-SUM(G15:Z15)</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="5">
+        <f>C15-SUM(G15:AA15)</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
@@ -2873,11 +2905,14 @@
         <v>1</v>
       </c>
       <c r="AA16" s="5">
-        <f>C16-SUM(G16:Z16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <f>C16-SUM(G16:AA16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
@@ -2916,8 +2951,9 @@
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
       <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
     </row>
-    <row r="18" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>30</v>
       </c>
@@ -2990,13 +3026,18 @@
       <c r="Y18" s="5">
         <v>1</v>
       </c>
-      <c r="Z18" s="5"/>
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
       <c r="AA18" s="5">
-        <f t="shared" ref="AA17:AA22" si="1">C18-SUM(G18:Z18)</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
+        <f>C18-SUM(G18:AA18)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>31</v>
       </c>
@@ -3069,13 +3110,18 @@
       <c r="Y19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="5"/>
+      <c r="Z19" s="5">
+        <v>1</v>
+      </c>
       <c r="AA19" s="5">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5">
+        <f>C19-SUM(G19:AA19)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
@@ -3114,8 +3160,9 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
       <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>32</v>
       </c>
@@ -3192,11 +3239,14 @@
         <v>0</v>
       </c>
       <c r="AA21" s="5">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <f>C21-SUM(G21:AA21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>33</v>
       </c>
@@ -3269,13 +3319,18 @@
       <c r="Y22" s="5">
         <v>0</v>
       </c>
-      <c r="Z22" s="5"/>
+      <c r="Z22" s="5">
+        <v>1</v>
+      </c>
       <c r="AA22" s="5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AB22" s="5">
+        <f>C22-SUM(G22:AA22)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:28" ht="18" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>5</v>
       </c>
@@ -3303,96 +3358,105 @@
         <v>47</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" ref="K23:AA23" si="2">J23-SUM(K9:K22)</f>
+        <f t="shared" ref="K23:Y23" si="0">J23-SUM(K9:K22)</f>
         <v>43</v>
       </c>
       <c r="L23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="M23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="N23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="W23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="Y23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="Z23" s="6">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="AA23" s="30">
-        <f>SUM(AA9:AA22)</f>
-        <v>16</v>
+        <f>Y23-SUM(Z9:Z22)</f>
+        <v>11</v>
+      </c>
+      <c r="AA23" s="6">
+        <f>Z23-SUM(AA9:AA22)</f>
+        <v>4</v>
+      </c>
+      <c r="AB23" s="23">
+        <f>SUM(AB9:AB22)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G6:Z6"/>
+    <mergeCell ref="G6:AA6"/>
   </mergeCells>
-  <conditionalFormatting sqref="I23:AA23">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="I23:AB23">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C17 C20 C8 C11">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:H23">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA23">
+  <conditionalFormatting sqref="AB23">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB21:AB22 AB18:AB19 AB15:AB16 AB12:AB13 AB9:AB10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -3400,7 +3464,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C8 AA9:AA10 AA12:AA13 AA15:AA16 AA18:AA19 AA21:AA22" formulaRange="1"/>
+    <ignoredError sqref="C8 AB9:AB10 AB21:AB22 AB18:AB19 AB15:AB16 AB12:AB13" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
